--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
@@ -625,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,15 +664,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -814,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -826,12 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -847,21 +856,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -913,26 +907,35 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -978,17 +981,99 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,1022 +1380,1022 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U284"/>
+  <dimension ref="A1:U285"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B23"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="11" style="32" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="33" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="19" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="30" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="30" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="34" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="35" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="34" customWidth="1"/>
-    <col min="20" max="20" width="20" style="35" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="34" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="19"/>
+    <col min="1" max="1" width="11.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="57.5703125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="146.7109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="12" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="187.85546875" style="23" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="23" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="27" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="28" customWidth="1"/>
+    <col min="19" max="19" width="27" style="27" customWidth="1"/>
+    <col min="20" max="20" width="52" style="28" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="27" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="M1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="S1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="T1" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="U1" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="9" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="10" t="s">
+    <row r="2" spans="1:21" s="7" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="60"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="35"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="59">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="77">
         <v>5</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="83">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23" t="s">
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="77">
         <v>5</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="38" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="83">
         <v>3</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23" t="s">
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="77">
         <v>5</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="83">
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23" t="s">
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="77">
         <v>5</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="83">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23" t="s">
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="77">
         <v>7</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="78" t="s">
         <v>138</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="83">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23" t="s">
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="77">
         <v>7</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="83">
         <v>7</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23" t="s">
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="77">
         <v>5</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="81" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="83">
         <v>8</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23" t="s">
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="77">
         <v>5</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="83">
         <v>9</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23" t="s">
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="77">
         <v>5</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="81"/>
+      <c r="G12" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="83">
         <v>10</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23" t="s">
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="77">
         <v>5</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="81"/>
+      <c r="G13" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="83">
         <v>11</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23" t="s">
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="77">
         <v>7</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="78" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="83">
         <v>12</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23" t="s">
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="77">
         <v>5</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="81"/>
+      <c r="G15" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="83">
         <v>13</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23" t="s">
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="77">
         <v>5</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="38" t="s">
+      <c r="F16" s="81"/>
+      <c r="G16" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="83">
         <v>14</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23" t="s">
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="77">
         <v>5</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="83">
         <v>15</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23" t="s">
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="77">
         <v>5</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="77" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="38" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="24">
         <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="30" t="s">
         <v>177</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23" t="s">
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="5">
@@ -2330,42 +2415,42 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="24">
         <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="17" t="s">
         <v>179</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23" t="s">
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="Q19" s="5">
@@ -2385,42 +2470,42 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="24">
         <v>18</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="17" t="s">
         <v>181</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23" t="s">
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="5">
@@ -2440,205 +2525,205 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24" t="s">
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="83">
         <v>19</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="26"/>
-      <c r="O21" s="23" t="s">
+      <c r="N21" s="67"/>
+      <c r="O21" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="77">
         <v>6</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="36" t="s">
+      <c r="T21" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="77" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24" t="s">
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="83">
         <v>20</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="82"/>
+      <c r="K22" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="23" t="s">
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="27"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="86"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24" t="s">
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="83">
         <v>21</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="82"/>
+      <c r="K23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26" t="s">
+      <c r="M23" s="67"/>
+      <c r="N23" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="77">
         <v>6</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="T23" s="36" t="s">
+      <c r="T23" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="77" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="24">
         <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="24"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26" t="s">
+      <c r="M24" s="19"/>
+      <c r="N24" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="16" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="5">
@@ -2650,7 +2735,7 @@
       <c r="S24" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="36" t="s">
+      <c r="T24" s="29" t="s">
         <v>193</v>
       </c>
       <c r="U24" s="5" t="s">
@@ -2658,1062 +2743,1062 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="24"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="27"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="20"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="31"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="24"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="27"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="20"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="24"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="27"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="20"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="31"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="24"/>
+      <c r="J28" s="17"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="27"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="20"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="31"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="27"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="20"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="31"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="27"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="20"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="31"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="27"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="20"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="31"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="27"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="20"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="31"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="27"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="20"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="31"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="24"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="27"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="20"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="31"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="24"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="27"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="20"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="31"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="24"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="27"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="20"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="31"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="24"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="27"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="20"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="31"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="24"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="27"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="20"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="31"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="24"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="27"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="20"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="31"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="24"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="27"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="20"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="31"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="27"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="20"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="31"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="24"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="27"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="20"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="31"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="24"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="27"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="20"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="31"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="24"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="27"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="20"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="31"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="24"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="27"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="20"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="31"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="24"/>
+      <c r="J46" s="17"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="27"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="20"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="31"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="24"/>
+      <c r="J47" s="17"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="27"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="20"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="31"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="24"/>
+      <c r="J48" s="17"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="27"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="20"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="31"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="24"/>
+      <c r="J49" s="17"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="27"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="20"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="31"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="24"/>
+      <c r="J50" s="17"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="27"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="20"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="31"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="24"/>
+      <c r="J51" s="17"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="27"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="20"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="31"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="24"/>
+      <c r="J52" s="17"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="28"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="27"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="20"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="31"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="24"/>
+      <c r="J53" s="17"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="28"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="27"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="20"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="31"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="24"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="24"/>
+      <c r="J54" s="17"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="28"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="27"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="20"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="31"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="24"/>
+      <c r="J55" s="17"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="27"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="20"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="31"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="24"/>
+      <c r="J56" s="17"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="27"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="20"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="31"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="24"/>
+      <c r="J57" s="17"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="28"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="28"/>
-      <c r="U57" s="27"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="20"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="31"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="24"/>
+      <c r="J58" s="17"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="28"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="28"/>
-      <c r="U58" s="27"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="20"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="31"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="24"/>
+      <c r="J59" s="17"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="28"/>
-      <c r="U59" s="27"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="20"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="31"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="24"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="28"/>
-      <c r="U60" s="27"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="20"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="31"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="24"/>
+      <c r="J61" s="17"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="28"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="28"/>
-      <c r="U61" s="27"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="20"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="31"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="24"/>
+      <c r="J62" s="17"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="28"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="28"/>
-      <c r="U62" s="27"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="20"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="31"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="24"/>
+      <c r="J63" s="17"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="28"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="28"/>
-      <c r="U63" s="27"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="20"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="31"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="24"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="24"/>
+      <c r="J64" s="17"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="27"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="20"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="31"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="24"/>
+      <c r="J65" s="17"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="28"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="28"/>
-      <c r="U65" s="27"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="20"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="31"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="24"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="24"/>
+      <c r="J66" s="17"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="28"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="28"/>
-      <c r="U66" s="27"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="20"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="31"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="24"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="24"/>
+      <c r="J67" s="17"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="28"/>
-      <c r="U67" s="27"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="21"/>
+      <c r="U67" s="20"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="31"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="24"/>
+      <c r="J68" s="17"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="28"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="28"/>
-      <c r="U68" s="27"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="20"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="31"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="24"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="24"/>
+      <c r="J69" s="17"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="28"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="28"/>
-      <c r="U69" s="27"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="20"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="31"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="24"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="24"/>
+      <c r="J70" s="17"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="28"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="28"/>
-      <c r="U70" s="27"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="20"/>
     </row>
     <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3730,187 +3815,187 @@
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="12" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="12" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="12" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="12" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4065,18 +4150,41 @@
     <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A285" s="68"/>
+      <c r="B285" s="68"/>
+      <c r="C285" s="68"/>
+      <c r="D285" s="68"/>
+      <c r="E285" s="68"/>
+      <c r="F285" s="69"/>
+      <c r="G285" s="70"/>
+      <c r="H285" s="71"/>
+      <c r="I285" s="71"/>
+      <c r="J285" s="70"/>
+      <c r="K285" s="72"/>
+      <c r="L285" s="68"/>
+      <c r="M285" s="68"/>
+      <c r="N285" s="68"/>
+      <c r="O285" s="69"/>
+      <c r="P285" s="69"/>
+      <c r="Q285" s="73"/>
+      <c r="R285" s="74"/>
+      <c r="S285" s="73"/>
+      <c r="T285" s="74"/>
+      <c r="U285" s="73"/>
+    </row>
   </sheetData>
   <autoFilter ref="P1:P284">
     <filterColumn colId="0">
@@ -4086,12 +4194,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4106,6 +4208,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="199">
   <si>
     <t>Asignatura</t>
   </si>
@@ -616,16 +622,13 @@
   </si>
   <si>
     <t>Banco de actividades del tema El universo</t>
-  </si>
-  <si>
-    <t>CS_06_07_CO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,30 +667,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -829,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -841,10 +829,79 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -854,6 +911,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -907,172 +979,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1135,7 +1053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,7 +1088,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1379,1023 +1297,1022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U285"/>
+  <dimension ref="A1:U284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="57.5703125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="146.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="12" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="187.85546875" style="23" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="23" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" style="27" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" style="28" customWidth="1"/>
-    <col min="19" max="19" width="27" style="27" customWidth="1"/>
-    <col min="20" max="20" width="52" style="28" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="27" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="10.5703125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="11" style="53" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="62" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="54" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="40" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="40" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="51" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="51" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="55" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="56" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="55" customWidth="1"/>
+    <col min="20" max="20" width="20" style="56" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="55" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="8" t="s">
+    <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="35"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="58"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="75" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="59">
+      <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="77">
+      <c r="Q3" s="5">
         <v>5</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="R3" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="77" t="s">
+      <c r="S3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="78" t="s">
+      <c r="T3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="77" t="s">
+      <c r="U3" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="83">
+      <c r="H4" s="52">
         <v>2</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81" t="s">
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="77">
+      <c r="Q4" s="5">
         <v>5</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="75" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="83">
+      <c r="H5" s="52">
         <v>3</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81" t="s">
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="77">
+      <c r="Q5" s="5">
         <v>5</v>
       </c>
-      <c r="R5" s="78" t="s">
+      <c r="R5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="77" t="s">
+      <c r="S5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="77" t="s">
+      <c r="U5" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="52">
         <v>4</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="66" t="s">
+      <c r="L6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81" t="s">
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="77">
+      <c r="Q6" s="5">
         <v>5</v>
       </c>
-      <c r="R6" s="78" t="s">
+      <c r="R6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="77" t="s">
+      <c r="S6" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="78" t="s">
+      <c r="T6" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="52">
         <v>5</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="84" t="s">
+      <c r="J7" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81" t="s">
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="5">
         <v>7</v>
       </c>
-      <c r="R7" s="78" t="s">
+      <c r="R7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="77" t="s">
+      <c r="S7" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="78" t="s">
+      <c r="T7" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="U7" s="77" t="s">
+      <c r="U7" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="83">
+      <c r="H8" s="52">
         <v>6</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="5">
         <v>7</v>
       </c>
-      <c r="R8" s="78" t="s">
+      <c r="R8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="77" t="s">
+      <c r="S8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="T8" s="78" t="s">
+      <c r="T8" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="77" t="s">
+      <c r="U8" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="52">
         <v>7</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="82" t="s">
+      <c r="J9" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="65" t="s">
+      <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="66" t="s">
+      <c r="L9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="77">
+      <c r="Q9" s="5">
         <v>5</v>
       </c>
-      <c r="R9" s="78" t="s">
+      <c r="R9" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S9" s="77" t="s">
+      <c r="S9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T9" s="78" t="s">
+      <c r="T9" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="U9" s="77" t="s">
+      <c r="U9" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="52">
         <v>8</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="66" t="s">
+      <c r="L10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81" t="s">
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="77">
+      <c r="Q10" s="5">
         <v>5</v>
       </c>
-      <c r="R10" s="78" t="s">
+      <c r="R10" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="77" t="s">
+      <c r="S10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T10" s="78" t="s">
+      <c r="T10" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="U10" s="77" t="s">
+      <c r="U10" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="52">
         <v>9</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="65" t="s">
+      <c r="K11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="66" t="s">
+      <c r="L11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81" t="s">
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="77">
+      <c r="Q11" s="5">
         <v>5</v>
       </c>
-      <c r="R11" s="78" t="s">
+      <c r="R11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="77" t="s">
+      <c r="S11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T11" s="78" t="s">
+      <c r="T11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="77" t="s">
+      <c r="U11" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="52">
         <v>10</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="65" t="s">
+      <c r="K12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81" t="s">
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="77">
+      <c r="Q12" s="5">
         <v>5</v>
       </c>
-      <c r="R12" s="78" t="s">
+      <c r="R12" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="77" t="s">
+      <c r="S12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T12" s="78" t="s">
+      <c r="T12" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="52">
         <v>11</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="65" t="s">
+      <c r="K13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81" t="s">
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="77">
+      <c r="Q13" s="5">
         <v>7</v>
       </c>
-      <c r="R13" s="78" t="s">
+      <c r="R13" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="77" t="s">
+      <c r="S13" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="T13" s="78" t="s">
+      <c r="T13" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="U13" s="77" t="s">
+      <c r="U13" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="80" t="s">
+      <c r="E14" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="52">
         <v>12</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="65" t="s">
+      <c r="K14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="66" t="s">
+      <c r="L14" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81" t="s">
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="77">
+      <c r="Q14" s="5">
         <v>5</v>
       </c>
-      <c r="R14" s="78" t="s">
+      <c r="R14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="77" t="s">
+      <c r="S14" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="78" t="s">
+      <c r="T14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="U14" s="77" t="s">
+      <c r="U14" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="52">
         <v>13</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="L15" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81" t="s">
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="77">
+      <c r="Q15" s="5">
         <v>5</v>
       </c>
-      <c r="R15" s="78" t="s">
+      <c r="R15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S15" s="77" t="s">
+      <c r="S15" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T15" s="78" t="s">
+      <c r="T15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="U15" s="77" t="s">
+      <c r="U15" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="75" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="52">
         <v>14</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="J16" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="65" t="s">
+      <c r="K16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81" t="s">
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="77">
+      <c r="Q16" s="5">
         <v>5</v>
       </c>
-      <c r="R16" s="78" t="s">
+      <c r="R16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S16" s="77" t="s">
+      <c r="S16" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T16" s="78" t="s">
+      <c r="T16" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="U16" s="77" t="s">
+      <c r="U16" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="52">
         <v>15</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="82" t="s">
+      <c r="J17" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="K17" s="65" t="s">
+      <c r="K17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81" t="s">
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="77">
+      <c r="Q17" s="5">
         <v>5</v>
       </c>
-      <c r="R17" s="78" t="s">
+      <c r="R17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="77" t="s">
+      <c r="S17" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="78" t="s">
+      <c r="T17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="U17" s="77" t="s">
+      <c r="U17" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="30" t="s">
+      <c r="E18" s="41"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="52">
         <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="61" t="s">
         <v>177</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16" t="s">
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="5">
@@ -2414,43 +2331,43 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="52">
         <v>17</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="45" t="s">
         <v>179</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16" t="s">
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44" t="s">
         <v>20</v>
       </c>
       <c r="Q19" s="5">
@@ -2469,43 +2386,43 @@
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
+      <c r="E20" s="41"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="52">
         <v>18</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="45" t="s">
         <v>181</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16" t="s">
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="5">
@@ -2525,205 +2442,205 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82" t="s">
+      <c r="E21" s="41"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="83">
+      <c r="H21" s="52">
         <v>19</v>
       </c>
-      <c r="I21" s="64" t="s">
+      <c r="I21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="82" t="s">
+      <c r="J21" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="65" t="s">
+      <c r="K21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="L21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="88" t="s">
+      <c r="M21" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="67"/>
-      <c r="O21" s="81" t="s">
+      <c r="N21" s="47"/>
+      <c r="O21" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="P21" s="81" t="s">
+      <c r="P21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="77">
+      <c r="Q21" s="5">
         <v>6</v>
       </c>
-      <c r="R21" s="78" t="s">
+      <c r="R21" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="S21" s="77" t="s">
+      <c r="S21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="85" t="s">
+      <c r="T21" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="U21" s="77" t="s">
+      <c r="U21" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="79" t="s">
+      <c r="D22" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82" t="s">
+      <c r="E22" s="41"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="83">
+      <c r="H22" s="52">
         <v>20</v>
       </c>
-      <c r="I22" s="64" t="s">
+      <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="65" t="s">
+      <c r="J22" s="45"/>
+      <c r="K22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="66" t="s">
+      <c r="L22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="81" t="s">
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="81" t="s">
+      <c r="P22" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="86"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="48"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="B23" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="D23" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="83">
+      <c r="H23" s="52">
         <v>21</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="82"/>
-      <c r="K23" s="65" t="s">
+      <c r="J23" s="45"/>
+      <c r="K23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="66" t="s">
+      <c r="L23" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67" t="s">
+      <c r="M23" s="47"/>
+      <c r="N23" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="81" t="s">
+      <c r="O23" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="P23" s="81" t="s">
+      <c r="P23" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="77">
+      <c r="Q23" s="5">
         <v>6</v>
       </c>
-      <c r="R23" s="78" t="s">
+      <c r="R23" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="S23" s="77" t="s">
+      <c r="S23" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="T23" s="85" t="s">
+      <c r="T23" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="U23" s="77" t="s">
+      <c r="U23" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17" t="s">
+      <c r="E24" s="41"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="52">
         <v>22</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="17"/>
+      <c r="J24" s="45"/>
       <c r="K24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19" t="s">
+      <c r="M24" s="47"/>
+      <c r="N24" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" s="44" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="5">
@@ -2735,1072 +2652,1071 @@
       <c r="S24" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="29" t="s">
+      <c r="T24" s="57" t="s">
         <v>193</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="24"/>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="17"/>
+      <c r="J25" s="45"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="20"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="24"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="48"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="17"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="20"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="24"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="48"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="17"/>
+      <c r="J27" s="45"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="20"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="24"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="48"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="17"/>
+      <c r="J28" s="45"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="20"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="24"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="48"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="52"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="17"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="20"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="24"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="48"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="17"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="20"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="24"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="48"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="17"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="20"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="24"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="48"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="52"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="20"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="24"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="49"/>
+      <c r="U32" s="48"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="17"/>
+      <c r="J33" s="45"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="20"/>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="24"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="48"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="52"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="45"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="20"/>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="24"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="48"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="52"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="17"/>
+      <c r="J35" s="45"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="20"/>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="24"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="48"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="52"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="17"/>
+      <c r="J36" s="45"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="20"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="24"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="48"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="52"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="17"/>
+      <c r="J37" s="45"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="20"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="24"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="48"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="52"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="45"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="20"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="24"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="48"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="52"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="17"/>
+      <c r="J39" s="45"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="20"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="24"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="48"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="17"/>
+      <c r="J40" s="45"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="20"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="24"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="49"/>
+      <c r="U40" s="48"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="52"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="17"/>
+      <c r="J41" s="45"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="20"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="24"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="48"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="52"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="17"/>
+      <c r="J42" s="45"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="20"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="24"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="48"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="52"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="17"/>
+      <c r="J43" s="45"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="20"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="24"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="48"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="52"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="17"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="20"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="24"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="48"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="52"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="17"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="20"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="24"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="48"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="52"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="45"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="20"/>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="24"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="48"/>
+    </row>
+    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="52"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="17"/>
+      <c r="J47" s="45"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="20"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="24"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="48"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="17"/>
+      <c r="J48" s="45"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="20"/>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="24"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="49"/>
+      <c r="U48" s="48"/>
+    </row>
+    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="52"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="17"/>
+      <c r="J49" s="45"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="20"/>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="24"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="48"/>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="50"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="52"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="17"/>
+      <c r="J50" s="45"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="20"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="24"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="49"/>
+      <c r="U50" s="48"/>
+    </row>
+    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="50"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="52"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="17"/>
+      <c r="J51" s="45"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="20"/>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="24"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="48"/>
+    </row>
+    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="52"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="17"/>
+      <c r="J52" s="45"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="20"/>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="24"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="48"/>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="50"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="52"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="17"/>
+      <c r="J53" s="45"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="20"/>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="24"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="48"/>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="52"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="17"/>
+      <c r="J54" s="45"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="20"/>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="24"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="48"/>
+    </row>
+    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="52"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="17"/>
+      <c r="J55" s="45"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="20"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="24"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="48"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="52"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="17"/>
+      <c r="J56" s="45"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="20"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="24"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="48"/>
+    </row>
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="50"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="52"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="17"/>
+      <c r="J57" s="45"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="20"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="24"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="48"/>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="52"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="17"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="20"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="24"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="48"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="50"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="17"/>
+      <c r="J59" s="45"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="20"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="24"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="48"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="50"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="52"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="17"/>
+      <c r="J60" s="45"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="20"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="24"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="48"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="52"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="17"/>
+      <c r="J61" s="45"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="20"/>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="24"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="48"/>
+    </row>
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="50"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="52"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="17"/>
+      <c r="J62" s="45"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="20"/>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="24"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="48"/>
+    </row>
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="50"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="52"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="17"/>
+      <c r="J63" s="45"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="20"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="24"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="48"/>
+    </row>
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="50"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="52"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="17"/>
+      <c r="J64" s="45"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="20"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="24"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="48"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="52"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="17"/>
+      <c r="J65" s="45"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="20"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="24"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="48"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="52"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="17"/>
+      <c r="J66" s="45"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="20"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="24"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="48"/>
+    </row>
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="52"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="17"/>
+      <c r="J67" s="45"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="20"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="24"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="48"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="50"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="52"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="17"/>
+      <c r="J68" s="45"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="20"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="24"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="48"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="52"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="17"/>
+      <c r="J69" s="45"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="20"/>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="24"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="48"/>
+    </row>
+    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="52"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="17"/>
+      <c r="J70" s="45"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="21"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="21"/>
-      <c r="U70" s="20"/>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="48"/>
+    </row>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3815,187 +3731,187 @@
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="40" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="40" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="40" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="40" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="40" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="40" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="40" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="40" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="40" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="40" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="40" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="40" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="40" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="40" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="40" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="40" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="40" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="40" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="40" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="40" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="40" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="40" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="40" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="40" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4150,48 +4066,21 @@
     <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A285" s="68"/>
-      <c r="B285" s="68"/>
-      <c r="C285" s="68"/>
-      <c r="D285" s="68"/>
-      <c r="E285" s="68"/>
-      <c r="F285" s="69"/>
-      <c r="G285" s="70"/>
-      <c r="H285" s="71"/>
-      <c r="I285" s="71"/>
-      <c r="J285" s="70"/>
-      <c r="K285" s="72"/>
-      <c r="L285" s="68"/>
-      <c r="M285" s="68"/>
-      <c r="N285" s="68"/>
-      <c r="O285" s="69"/>
-      <c r="P285" s="69"/>
-      <c r="Q285" s="73"/>
-      <c r="R285" s="74"/>
-      <c r="S285" s="73"/>
-      <c r="T285" s="74"/>
-      <c r="U285" s="73"/>
-    </row>
+    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="P1:P284">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="SI"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:U2">
+    <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>

--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -19,12 +14,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
   <si>
     <t>Asignatura</t>
   </si>
@@ -622,13 +616,16 @@
   </si>
   <si>
     <t>Banco de actividades del tema El universo</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema El universo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,14 +657,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -675,7 +665,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -817,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -827,171 +839,207 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,7 +1101,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1088,7 +1136,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1299,1244 +1347,1244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="51" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="62" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="11" style="53" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="62" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="54" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="40" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="51" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="51" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="55" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="56" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="55" customWidth="1"/>
-    <col min="20" max="20" width="20" style="56" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="55" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="13.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="61.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="22" customWidth="1"/>
+    <col min="10" max="10" width="96.28515625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="9" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="71.140625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="24" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="24" customWidth="1"/>
+    <col min="20" max="20" width="20" style="25" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="24" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="54" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="23" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="30" t="s">
+    <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="58"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="61" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="32">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="46">
         <v>5</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="42">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="30" t="s">
         <v>130</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44" t="s">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="46">
         <v>5</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="61" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="52">
+      <c r="H5" s="42">
         <v>3</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="28" t="s">
         <v>132</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="46">
         <v>5</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="52">
+      <c r="H6" s="42">
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="28" t="s">
         <v>136</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="46">
         <v>5</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="42">
         <v>5</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="60" t="s">
+      <c r="J7" s="30" t="s">
         <v>142</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44" t="s">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="46">
         <v>7</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="46" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="42">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="31" t="s">
         <v>147</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="L8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44" t="s">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="46">
         <v>7</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="46" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9" s="42">
         <v>7</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="28" t="s">
         <v>150</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="46">
         <v>5</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="G10" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="42">
         <v>8</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="31" t="s">
         <v>152</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44" t="s">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="46">
         <v>5</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11" s="42">
         <v>9</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="61" t="s">
+      <c r="J11" s="31" t="s">
         <v>157</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44" t="s">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="46">
         <v>5</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="42">
         <v>10</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="28" t="s">
         <v>159</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="46" t="s">
+      <c r="L12" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44" t="s">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="46">
         <v>5</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="U12" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="42">
         <v>11</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="28" t="s">
         <v>163</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="46">
         <v>7</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="U13" s="46" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="42">
         <v>12</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="28" t="s">
         <v>166</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44" t="s">
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="46">
         <v>5</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="U14" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="42">
         <v>13</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="31" t="s">
         <v>169</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44" t="s">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="46">
         <v>5</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="U15" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="61" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="42">
         <v>14</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="28" t="s">
         <v>171</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44" t="s">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="46">
         <v>5</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="U16" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="42">
         <v>15</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="28" t="s">
         <v>175</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44" t="s">
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="46">
         <v>5</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="6" t="s">
+      <c r="T17" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="U17" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="61" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="42">
         <v>16</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="31" t="s">
         <v>177</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="46">
         <v>5</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="U18" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="42">
         <v>17</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="28" t="s">
         <v>179</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44" t="s">
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="46">
         <v>5</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="U19" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="42">
         <v>18</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="28" t="s">
         <v>181</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="46" t="s">
+      <c r="L20" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44" t="s">
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="46">
         <v>5</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T20" s="6" t="s">
+      <c r="T20" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="U20" s="46" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="42">
         <v>19</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="47"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="16"/>
+      <c r="O21" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="P21" s="44" t="s">
+      <c r="P21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="46">
         <v>6</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="57" t="s">
+      <c r="T21" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="U21" s="46" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="42">
         <v>20</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="45"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="44" t="s">
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="44" t="s">
+      <c r="P22" s="41" t="s">
         <v>19</v>
       </c>
       <c r="Q22" s="48"/>
@@ -2546,1176 +2594,1178 @@
       <c r="U22" s="48"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="52">
+      <c r="H23" s="42">
         <v>21</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47" t="s">
+      <c r="M23" s="16"/>
+      <c r="N23" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="44" t="s">
+      <c r="O23" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="P23" s="44" t="s">
+      <c r="P23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="46">
         <v>6</v>
       </c>
-      <c r="R23" s="6" t="s">
+      <c r="R23" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="T23" s="57" t="s">
+      <c r="T23" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="U23" s="46" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="42">
         <v>22</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="45"/>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="28"/>
+      <c r="K24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47" t="s">
+      <c r="M24" s="16"/>
+      <c r="N24" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="44" t="s">
+      <c r="P24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="46">
         <v>6</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="57" t="s">
+      <c r="T24" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="U24" s="46" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="52"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="45"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="48"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="17"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="52"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="45"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="48"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="17"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="52"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="45"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="48"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="17"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="52"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="45"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="48"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="17"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="52"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="45"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="48"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="17"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="52"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="21"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="45"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="48"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="17"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="52"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="45"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="48"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="17"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="52"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="21"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="45"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="49"/>
-      <c r="U32" s="48"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="17"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="52"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="45"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="49"/>
-      <c r="U33" s="48"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="17"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="52"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="21"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="45"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="48"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="17"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="52"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="45"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="49"/>
-      <c r="U35" s="48"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="17"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="52"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="21"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="45"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="48"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="17"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="52"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="45"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="48"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="17"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="52"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="21"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="45"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="48"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="17"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="52"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="45"/>
+      <c r="J39" s="14"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="48"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="17"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="52"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="21"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="45"/>
+      <c r="J40" s="14"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="48"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="17"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="52"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="21"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="45"/>
+      <c r="J41" s="14"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="48"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="17"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="52"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="45"/>
+      <c r="J42" s="14"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="49"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="49"/>
-      <c r="U42" s="48"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="52"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="21"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="45"/>
+      <c r="J43" s="14"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="48"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="17"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="52"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="45"/>
+      <c r="J44" s="14"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="49"/>
-      <c r="U44" s="48"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="17"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="52"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="21"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="45"/>
+      <c r="J45" s="14"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="48"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="17"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="52"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="21"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="45"/>
+      <c r="J46" s="14"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="48"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="17"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="52"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="45"/>
+      <c r="J47" s="14"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="48"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="17"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="52"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="21"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="45"/>
+      <c r="J48" s="14"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="48"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="17"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="52"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="45"/>
+      <c r="J49" s="14"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="49"/>
-      <c r="U49" s="48"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="17"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="52"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="21"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="45"/>
+      <c r="J50" s="14"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="44"/>
-      <c r="P50" s="44"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="48"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="17"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="52"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="21"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="45"/>
+      <c r="J51" s="14"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="49"/>
-      <c r="U51" s="48"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="17"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="52"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="21"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="45"/>
+      <c r="J52" s="14"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="44"/>
-      <c r="P52" s="44"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="49"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="49"/>
-      <c r="U52" s="48"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="17"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="52"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="21"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="45"/>
+      <c r="J53" s="14"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="49"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="49"/>
-      <c r="U53" s="48"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="17"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="52"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="21"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="45"/>
+      <c r="J54" s="14"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="44"/>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="49"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="49"/>
-      <c r="U54" s="48"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="17"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="52"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="21"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="45"/>
+      <c r="J55" s="14"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="49"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="49"/>
-      <c r="U55" s="48"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="17"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
-      <c r="H56" s="52"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="21"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="45"/>
+      <c r="J56" s="14"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="49"/>
-      <c r="U56" s="48"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="17"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="52"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="45"/>
+      <c r="J57" s="14"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="49"/>
-      <c r="U57" s="48"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="17"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="52"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="21"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="45"/>
+      <c r="J58" s="14"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="48"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="17"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="52"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="21"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="45"/>
+      <c r="J59" s="14"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="49"/>
-      <c r="S59" s="48"/>
-      <c r="T59" s="49"/>
-      <c r="U59" s="48"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="17"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="52"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="21"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="45"/>
+      <c r="J60" s="14"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="49"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="49"/>
-      <c r="U60" s="48"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="17"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="52"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="45"/>
+      <c r="J61" s="14"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="48"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="48"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="17"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="52"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="21"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="45"/>
+      <c r="J62" s="14"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="48"/>
-      <c r="T62" s="49"/>
-      <c r="U62" s="48"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="17"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="52"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="21"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="45"/>
+      <c r="J63" s="14"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="48"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="17"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="52"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="21"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="45"/>
+      <c r="J64" s="14"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="49"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="49"/>
-      <c r="U64" s="48"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="17"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="45"/>
-      <c r="H65" s="52"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="45"/>
+      <c r="J65" s="14"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="49"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="48"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="17"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="52"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="21"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="45"/>
+      <c r="J66" s="14"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="48"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="17"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="52"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="21"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="45"/>
+      <c r="J67" s="14"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="49"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="48"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="17"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="52"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="21"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="45"/>
+      <c r="J68" s="14"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="49"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="48"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="17"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="52"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="21"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="45"/>
+      <c r="J69" s="14"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="49"/>
-      <c r="U69" s="48"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="17"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="52"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="21"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="45"/>
+      <c r="J70" s="14"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="48"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="48"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="17"/>
     </row>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3731,187 +3781,187 @@
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="40" t="s">
+      <c r="A87" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40" t="s">
+      <c r="A90" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
+      <c r="A94" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
+      <c r="A97" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40" t="s">
+      <c r="A98" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40" t="s">
+      <c r="A99" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40" t="s">
+      <c r="A100" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="40" t="s">
+      <c r="A101" s="9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40" t="s">
+      <c r="A102" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40" t="s">
+      <c r="A105" s="9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="9" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40" t="s">
+      <c r="A109" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40" t="s">
+      <c r="A110" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40" t="s">
+      <c r="A111" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40" t="s">
+      <c r="A112" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40" t="s">
+      <c r="A113" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40" t="s">
+      <c r="A114" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="40" t="s">
+      <c r="A115" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40" t="s">
+      <c r="A117" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40" t="s">
+      <c r="A119" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40" t="s">
+      <c r="A120" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40" t="s">
+      <c r="A121" s="9" t="s">
         <v>115</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
@@ -625,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +686,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -829,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -839,9 +846,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -920,9 +924,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -972,12 +973,63 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -990,56 +1042,14 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,2423 +1359,2423 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="61.140625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="96.28515625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="9" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="71.140625" style="20" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="24" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="24" customWidth="1"/>
-    <col min="20" max="20" width="20" style="25" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" style="24" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="13.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="61.140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="96.28515625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="8" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="8" customWidth="1"/>
+    <col min="15" max="15" width="71.140625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="19" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="23" customWidth="1"/>
+    <col min="20" max="20" width="20" style="24" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" style="23" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="70"/>
+      <c r="N1" s="64"/>
       <c r="O1" s="52" t="s">
         <v>109</v>
       </c>
       <c r="P1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="S1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="U1" s="69" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="7" t="s">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>91</v>
       </c>
       <c r="O2" s="53"/>
       <c r="P2" s="53"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="55"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <v>1</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="44">
         <v>5</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="46" t="s">
+      <c r="S3" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="U3" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="40">
         <v>2</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="44">
         <v>5</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="46" t="s">
+      <c r="S4" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="40">
         <v>3</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="44">
         <v>5</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="46" t="s">
+      <c r="U5" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="28" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="40">
         <v>4</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="44">
         <v>5</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="46" t="s">
+      <c r="S6" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="47" t="s">
+      <c r="T6" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="U6" s="46" t="s">
+      <c r="U6" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="40">
         <v>5</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="44">
         <v>7</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="46" t="s">
+      <c r="S7" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="47" t="s">
+      <c r="T7" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="U7" s="46" t="s">
+      <c r="U7" s="44" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="40">
         <v>6</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41" t="s">
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="44">
         <v>7</v>
       </c>
-      <c r="R8" s="47" t="s">
+      <c r="R8" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="46" t="s">
+      <c r="S8" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="T8" s="47" t="s">
+      <c r="T8" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="U8" s="46" t="s">
+      <c r="U8" s="44" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="40">
         <v>7</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="44">
         <v>5</v>
       </c>
-      <c r="R9" s="47" t="s">
+      <c r="R9" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T9" s="47" t="s">
+      <c r="T9" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="U9" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="40">
         <v>8</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31" t="s">
+      <c r="J10" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="44">
         <v>5</v>
       </c>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S10" s="46" t="s">
+      <c r="S10" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T10" s="47" t="s">
+      <c r="T10" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="U10" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="40">
         <v>9</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="44">
         <v>5</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="R11" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S11" s="46" t="s">
+      <c r="S11" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="T11" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="46" t="s">
+      <c r="U11" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="28" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="40">
         <v>10</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41" t="s">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="44">
         <v>5</v>
       </c>
-      <c r="R12" s="47" t="s">
+      <c r="R12" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S12" s="46" t="s">
+      <c r="S12" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T12" s="47" t="s">
+      <c r="T12" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="U12" s="46" t="s">
+      <c r="U12" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="40">
         <v>11</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="44">
         <v>7</v>
       </c>
-      <c r="R13" s="47" t="s">
+      <c r="R13" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="46" t="s">
+      <c r="S13" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="T13" s="47" t="s">
+      <c r="T13" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="U13" s="46" t="s">
+      <c r="U13" s="44" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="28" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="40">
         <v>12</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="44">
         <v>5</v>
       </c>
-      <c r="R14" s="47" t="s">
+      <c r="R14" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S14" s="46" t="s">
+      <c r="S14" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T14" s="47" t="s">
+      <c r="T14" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="U14" s="46" t="s">
+      <c r="U14" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="40">
         <v>13</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="44">
         <v>5</v>
       </c>
-      <c r="R15" s="47" t="s">
+      <c r="R15" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S15" s="46" t="s">
+      <c r="S15" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T15" s="47" t="s">
+      <c r="T15" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="U15" s="46" t="s">
+      <c r="U15" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="40">
         <v>14</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="44">
         <v>5</v>
       </c>
-      <c r="R16" s="47" t="s">
+      <c r="R16" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S16" s="46" t="s">
+      <c r="S16" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T16" s="47" t="s">
+      <c r="T16" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="U16" s="46" t="s">
+      <c r="U16" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="28" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="40">
         <v>15</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="44">
         <v>5</v>
       </c>
-      <c r="R17" s="47" t="s">
+      <c r="R17" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S17" s="46" t="s">
+      <c r="S17" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T17" s="47" t="s">
+      <c r="T17" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="U17" s="46" t="s">
+      <c r="U17" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="31" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="40">
         <v>16</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="44">
         <v>5</v>
       </c>
-      <c r="R18" s="47" t="s">
+      <c r="R18" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S18" s="46" t="s">
+      <c r="S18" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T18" s="47" t="s">
+      <c r="T18" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="U18" s="46" t="s">
+      <c r="U18" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="28" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="40">
         <v>17</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="44">
         <v>5</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S19" s="46" t="s">
+      <c r="S19" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T19" s="47" t="s">
+      <c r="T19" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="U19" s="46" t="s">
+      <c r="U19" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="28" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="40">
         <v>18</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41" t="s">
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="44">
         <v>5</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="S20" s="46" t="s">
+      <c r="S20" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="T20" s="47" t="s">
+      <c r="T20" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="U20" s="46" t="s">
+      <c r="U20" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="28" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="40">
         <v>19</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="41" t="s">
+      <c r="N21" s="15"/>
+      <c r="O21" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="P21" s="41" t="s">
+      <c r="P21" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="44">
         <v>6</v>
       </c>
-      <c r="R21" s="47" t="s">
+      <c r="R21" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="S21" s="46" t="s">
+      <c r="S21" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="26" t="s">
+      <c r="T21" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="U21" s="46" t="s">
+      <c r="U21" s="44" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="28" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="40">
         <v>20</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="27"/>
+      <c r="K22" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="41" t="s">
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="48"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="46"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="28" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="40">
         <v>21</v>
       </c>
-      <c r="I23" s="33" t="s">
+      <c r="I23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16" t="s">
+      <c r="M23" s="15"/>
+      <c r="N23" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="50" t="s">
+      <c r="O23" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="P23" s="41" t="s">
+      <c r="P23" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="44">
         <v>6</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="S23" s="46" t="s">
+      <c r="S23" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="T23" s="26" t="s">
+      <c r="T23" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="U23" s="46" t="s">
+      <c r="U23" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="28" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="40">
         <v>22</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="34" t="s">
+      <c r="J24" s="27"/>
+      <c r="K24" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="44" t="s">
+      <c r="L24" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="P24" s="41" t="s">
+      <c r="P24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="44">
         <v>6</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="46" t="s">
+      <c r="S24" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="T24" s="26" t="s">
+      <c r="T24" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="U24" s="46" t="s">
+      <c r="U24" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="21"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="17"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="16"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="16"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="14"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="16"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="20"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="14"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="16"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="21"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="14"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="16"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="14"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="21"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="16"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="21"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="16"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="21"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="14"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="16"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="21"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="20"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="14"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="16"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="16"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="21"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="14"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="16"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="21"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="20"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="14"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="16"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="21"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="14"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="16"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="21"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="14"/>
+      <c r="J41" s="13"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="16"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="21"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="14"/>
+      <c r="J42" s="13"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="16"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="21"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="14"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="16"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="21"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="20"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="14"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="16"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="21"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="20"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="14"/>
+      <c r="J45" s="13"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="16"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="21"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="14"/>
+      <c r="J46" s="13"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="16"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="21"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="20"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="14"/>
+      <c r="J47" s="13"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="16"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="21"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="20"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="14"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="16"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="21"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="20"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="14"/>
+      <c r="J49" s="13"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="16"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="21"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="20"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="14"/>
+      <c r="J50" s="13"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="16"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="21"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="14"/>
+      <c r="J51" s="13"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="16"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="21"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="20"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="14"/>
+      <c r="J52" s="13"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="16"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="21"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="20"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="14"/>
+      <c r="J53" s="13"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="16"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="21"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="20"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="14"/>
+      <c r="J54" s="13"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="16"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="21"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="20"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="14"/>
+      <c r="J55" s="13"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="16"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="21"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="20"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="14"/>
+      <c r="J56" s="13"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="16"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="21"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="20"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="14"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="16"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="21"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="20"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="14"/>
+      <c r="J58" s="13"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="16"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="21"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="20"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="14"/>
+      <c r="J59" s="13"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="16"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="21"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="20"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="14"/>
+      <c r="J60" s="13"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="16"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="21"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="20"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="14"/>
+      <c r="J61" s="13"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="17"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="16"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="21"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="20"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="14"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="17"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="16"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="21"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="20"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="14"/>
+      <c r="J63" s="13"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="17"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="16"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="21"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="20"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="14"/>
+      <c r="J64" s="13"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="17"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="16"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="21"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="14"/>
+      <c r="J65" s="13"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="17"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="16"/>
     </row>
     <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="21"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="20"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="14"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="17"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="16"/>
     </row>
     <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="21"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="20"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="14"/>
+      <c r="J67" s="13"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="17"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="16"/>
     </row>
     <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="21"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="20"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="14"/>
+      <c r="J68" s="13"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="17"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="16"/>
     </row>
     <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="21"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="14"/>
+      <c r="J69" s="13"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="17"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="16"/>
     </row>
     <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="21"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="20"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="14"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="17"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="16"/>
     </row>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
@@ -3781,187 +3791,187 @@
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="8" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4133,6 +4143,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4147,12 +4163,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
@@ -387,9 +387,6 @@
     <t>m101A</t>
   </si>
   <si>
-    <t>CS_07_07_CO</t>
-  </si>
-  <si>
     <t>El universo</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>Evalúa tus conocimientos sobre el tema El universo</t>
+  </si>
+  <si>
+    <t>CS_06_07_CO</t>
   </si>
 </sst>
 </file>
@@ -973,18 +973,39 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,27 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,9 +1357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,112 +1388,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="52" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="69" t="s">
+      <c r="U1" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="59"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="6" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="70"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>123</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="31">
         <v>1</v>
@@ -1502,9 +1502,9 @@
         <v>20</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="50" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="41" t="s">
@@ -1520,16 +1520,16 @@
         <v>5</v>
       </c>
       <c r="R3" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T3" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1537,18 +1537,18 @@
         <v>18</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="38"/>
       <c r="F4" s="39"/>
       <c r="G4" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" s="40">
         <v>2</v>
@@ -1557,9 +1557,9 @@
         <v>19</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="42" t="s">
@@ -1575,16 +1575,16 @@
         <v>5</v>
       </c>
       <c r="R4" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1592,20 +1592,20 @@
         <v>18</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="40">
         <v>3</v>
@@ -1614,9 +1614,9 @@
         <v>20</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="42" t="s">
@@ -1632,16 +1632,16 @@
         <v>5</v>
       </c>
       <c r="R5" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1649,18 +1649,18 @@
         <v>18</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D6" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="39"/>
       <c r="G6" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="40">
         <v>4</v>
@@ -1669,9 +1669,9 @@
         <v>19</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="42" t="s">
@@ -1687,16 +1687,16 @@
         <v>5</v>
       </c>
       <c r="R6" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1704,22 +1704,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>138</v>
-      </c>
       <c r="G7" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" s="40">
         <v>5</v>
@@ -1728,9 +1728,9 @@
         <v>19</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="42" t="s">
@@ -1746,16 +1746,16 @@
         <v>7</v>
       </c>
       <c r="R7" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="44" t="s">
+      <c r="T7" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="T7" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="U7" s="44" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,22 +1763,22 @@
         <v>18</v>
       </c>
       <c r="B8" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D8" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="G8" s="27" t="s">
         <v>144</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>145</v>
       </c>
       <c r="H8" s="40">
         <v>6</v>
@@ -1787,9 +1787,9 @@
         <v>19</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="42" t="s">
@@ -1805,16 +1805,16 @@
         <v>7</v>
       </c>
       <c r="R8" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="T8" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="T8" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="44" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1822,22 +1822,22 @@
         <v>18</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>148</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>149</v>
       </c>
       <c r="H9" s="40">
         <v>7</v>
@@ -1846,9 +1846,9 @@
         <v>20</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="42" t="s">
@@ -1864,16 +1864,16 @@
         <v>5</v>
       </c>
       <c r="R9" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="U9" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="U9" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1881,22 +1881,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="40">
         <v>8</v>
@@ -1905,9 +1905,9 @@
         <v>20</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="42" t="s">
@@ -1923,16 +1923,16 @@
         <v>5</v>
       </c>
       <c r="R10" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="U10" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S10" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T10" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="U10" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1940,22 +1940,22 @@
         <v>18</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D11" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="27" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="H11" s="40">
         <v>9</v>
@@ -1964,9 +1964,9 @@
         <v>20</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="K11" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="42" t="s">
@@ -1982,16 +1982,16 @@
         <v>5</v>
       </c>
       <c r="R11" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="U11" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -1999,20 +1999,20 @@
         <v>18</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="40">
         <v>10</v>
@@ -2021,9 +2021,9 @@
         <v>20</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="K12" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="42" t="s">
@@ -2039,16 +2039,16 @@
         <v>5</v>
       </c>
       <c r="R12" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="U12" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S12" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="U12" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2056,20 +2056,20 @@
         <v>18</v>
       </c>
       <c r="B13" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D13" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>160</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>161</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="40">
         <v>11</v>
@@ -2078,9 +2078,9 @@
         <v>19</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="K13" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="42" t="s">
@@ -2096,16 +2096,16 @@
         <v>7</v>
       </c>
       <c r="R13" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="T13" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="U13" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="T13" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="U13" s="44" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2113,20 +2113,20 @@
         <v>18</v>
       </c>
       <c r="B14" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D14" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="40">
         <v>12</v>
@@ -2135,9 +2135,9 @@
         <v>20</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="42" t="s">
@@ -2153,16 +2153,16 @@
         <v>5</v>
       </c>
       <c r="R14" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S14" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="U14" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S14" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T14" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="U14" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2170,20 +2170,20 @@
         <v>18</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D15" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="40">
         <v>13</v>
@@ -2192,9 +2192,9 @@
         <v>20</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="42" t="s">
@@ -2210,16 +2210,16 @@
         <v>5</v>
       </c>
       <c r="R15" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="U15" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T15" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="U15" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2227,20 +2227,20 @@
         <v>18</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="40">
         <v>14</v>
@@ -2249,9 +2249,9 @@
         <v>20</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="42" t="s">
@@ -2267,16 +2267,16 @@
         <v>5</v>
       </c>
       <c r="R16" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S16" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="U16" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S16" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T16" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="U16" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2284,18 +2284,18 @@
         <v>18</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D17" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="39"/>
       <c r="G17" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H17" s="40">
         <v>15</v>
@@ -2304,9 +2304,9 @@
         <v>20</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K17" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="42" t="s">
@@ -2322,16 +2322,16 @@
         <v>5</v>
       </c>
       <c r="R17" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="U17" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S17" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T17" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="U17" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2339,18 +2339,18 @@
         <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D18" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="39"/>
       <c r="G18" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H18" s="40">
         <v>16</v>
@@ -2359,9 +2359,9 @@
         <v>20</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="K18" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="42" t="s">
@@ -2377,16 +2377,16 @@
         <v>5</v>
       </c>
       <c r="R18" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S18" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="U18" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S18" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T18" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="U18" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2394,18 +2394,18 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D19" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="39"/>
       <c r="G19" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H19" s="40">
         <v>17</v>
@@ -2414,9 +2414,9 @@
         <v>20</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="42" t="s">
@@ -2432,16 +2432,16 @@
         <v>5</v>
       </c>
       <c r="R19" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T19" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="U19" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S19" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T19" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="U19" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2449,18 +2449,18 @@
         <v>18</v>
       </c>
       <c r="B20" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D20" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="39"/>
       <c r="G20" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" s="40">
         <v>18</v>
@@ -2469,9 +2469,9 @@
         <v>20</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="42" t="s">
@@ -2487,16 +2487,16 @@
         <v>5</v>
       </c>
       <c r="R20" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="U20" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="S20" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="T20" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="U20" s="44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2504,18 +2504,18 @@
         <v>18</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D21" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="39"/>
       <c r="G21" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H21" s="40">
         <v>19</v>
@@ -2524,9 +2524,9 @@
         <v>20</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="52" t="s">
         <v>20</v>
       </c>
       <c r="L21" s="42" t="s">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>19</v>
@@ -2546,16 +2546,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="S21" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="T21" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="U21" s="44" t="s">
         <v>187</v>
-      </c>
-      <c r="U21" s="44" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2563,18 +2563,18 @@
         <v>18</v>
       </c>
       <c r="B22" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D22" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="39"/>
       <c r="G22" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" s="40">
         <v>20</v>
@@ -2583,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="27"/>
-      <c r="K22" s="74" t="s">
+      <c r="K22" s="51" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="42" t="s">
@@ -2592,7 +2592,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>19</v>
@@ -2608,18 +2608,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D23" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39"/>
       <c r="G23" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="40">
         <v>21</v>
@@ -2628,9 +2628,9 @@
         <v>20</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K23" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="52" t="s">
         <v>20</v>
       </c>
       <c r="L23" s="42" t="s">
@@ -2641,7 +2641,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>19</v>
@@ -2650,16 +2650,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="S23" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="S23" s="44" t="s">
+      <c r="T23" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="U23" s="44" t="s">
         <v>191</v>
-      </c>
-      <c r="U23" s="44" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2667,18 +2667,18 @@
         <v>18</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>123</v>
-      </c>
       <c r="D24" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
       <c r="G24" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="40">
         <v>22</v>
@@ -2687,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="27"/>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="52" t="s">
         <v>20</v>
       </c>
       <c r="L24" s="42" t="s">
@@ -2698,7 +2698,7 @@
         <v>52</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>20</v>
@@ -2707,16 +2707,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="S24" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="S24" s="44" t="s">
-        <v>190</v>
-      </c>
       <c r="T24" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
       <c r="H25" s="20"/>
       <c r="I25" s="3"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="74"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="14"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
@@ -4143,12 +4143,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4163,6 +4157,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="199">
   <si>
     <t>Asignatura</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>Competencias</t>
-  </si>
-  <si>
-    <t>Identificación de las estrellas observables</t>
   </si>
   <si>
     <t>Competencias: identificación de las estrellas observables</t>
@@ -982,12 +979,63 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -998,57 +1046,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1357,9 +1354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,101 +1385,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="53" t="s">
+      <c r="N1" s="67"/>
+      <c r="O1" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="P1" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="55" t="s">
+      <c r="S1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="72" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="6" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>122</v>
@@ -1537,7 +1534,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>122</v>
@@ -1592,7 +1589,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>122</v>
@@ -1649,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>122</v>
@@ -1704,7 +1701,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>122</v>
@@ -1763,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>122</v>
@@ -1822,7 +1819,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>122</v>
@@ -1881,7 +1878,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>122</v>
@@ -1940,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>122</v>
@@ -1999,7 +1996,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>122</v>
@@ -2056,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>122</v>
@@ -2113,7 +2110,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>122</v>
@@ -2170,7 +2167,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>122</v>
@@ -2227,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>122</v>
@@ -2284,7 +2281,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>122</v>
@@ -2304,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" s="51" t="s">
         <v>19</v>
@@ -2328,7 +2325,7 @@
         <v>122</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U17" s="44" t="s">
         <v>126</v>
@@ -2339,7 +2336,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>122</v>
@@ -2350,7 +2347,7 @@
       <c r="E18" s="38"/>
       <c r="F18" s="39"/>
       <c r="G18" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H18" s="40">
         <v>16</v>
@@ -2359,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K18" s="51" t="s">
         <v>19</v>
@@ -2383,7 +2380,7 @@
         <v>122</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U18" s="44" t="s">
         <v>126</v>
@@ -2394,7 +2391,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>122</v>
@@ -2405,7 +2402,7 @@
       <c r="E19" s="38"/>
       <c r="F19" s="39"/>
       <c r="G19" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H19" s="40">
         <v>17</v>
@@ -2414,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" s="51" t="s">
         <v>19</v>
@@ -2438,7 +2435,7 @@
         <v>122</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U19" s="44" t="s">
         <v>126</v>
@@ -2449,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>122</v>
@@ -2460,7 +2457,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="39"/>
       <c r="G20" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H20" s="40">
         <v>18</v>
@@ -2469,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="51" t="s">
         <v>19</v>
@@ -2493,7 +2490,7 @@
         <v>122</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U20" s="44" t="s">
         <v>126</v>
@@ -2504,7 +2501,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>122</v>
@@ -2515,7 +2512,7 @@
       <c r="E21" s="38"/>
       <c r="F21" s="39"/>
       <c r="G21" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H21" s="40">
         <v>19</v>
@@ -2524,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K21" s="52" t="s">
         <v>20</v>
@@ -2537,7 +2534,7 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>19</v>
@@ -2546,16 +2543,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="S21" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="T21" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="U21" s="44" t="s">
         <v>186</v>
-      </c>
-      <c r="U21" s="44" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2563,18 +2560,18 @@
         <v>18</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="39"/>
       <c r="G22" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H22" s="40">
         <v>20</v>
@@ -2592,7 +2589,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>19</v>
@@ -2608,18 +2605,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39"/>
       <c r="G23" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" s="40">
         <v>21</v>
@@ -2628,7 +2625,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K23" s="52" t="s">
         <v>20</v>
@@ -2641,7 +2638,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>19</v>
@@ -2650,16 +2647,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="S23" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="S23" s="44" t="s">
+      <c r="T23" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="U23" s="44" t="s">
         <v>190</v>
-      </c>
-      <c r="U23" s="44" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2667,18 +2664,18 @@
         <v>18</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
       <c r="G24" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="40">
         <v>22</v>
@@ -2698,7 +2695,7 @@
         <v>52</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>20</v>
@@ -2707,16 +2704,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="S24" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="S24" s="44" t="s">
-        <v>189</v>
-      </c>
       <c r="T24" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4143,6 +4140,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4157,12 +4160,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion07/CS_06_07_CO_Escaleta.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="200">
   <si>
     <t>Asignatura</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>Competencias</t>
+  </si>
+  <si>
+    <t>Identificación de las estrellas observables</t>
   </si>
   <si>
     <t>Competencias: identificación de las estrellas observables</t>
@@ -979,18 +982,30 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,18 +1049,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1354,9 +1357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U21" sqref="U21"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,101 +1388,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="55" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="72" t="s">
+      <c r="Q1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="72" t="s">
+      <c r="S1" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="72" t="s">
+      <c r="U1" s="55" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="62"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="6" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="73"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="56"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>122</v>
@@ -1534,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>122</v>
@@ -1589,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>122</v>
@@ -1646,7 +1649,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>122</v>
@@ -1701,7 +1704,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>122</v>
@@ -1760,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>122</v>
@@ -1819,7 +1822,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>122</v>
@@ -1878,7 +1881,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>122</v>
@@ -1937,7 +1940,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>122</v>
@@ -1996,7 +1999,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>122</v>
@@ -2053,7 +2056,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>122</v>
@@ -2110,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>122</v>
@@ -2167,7 +2170,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>122</v>
@@ -2224,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>122</v>
@@ -2281,7 +2284,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>122</v>
@@ -2301,7 +2304,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K17" s="51" t="s">
         <v>19</v>
@@ -2325,7 +2328,7 @@
         <v>122</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="U17" s="44" t="s">
         <v>126</v>
@@ -2336,7 +2339,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>122</v>
@@ -2347,7 +2350,7 @@
       <c r="E18" s="38"/>
       <c r="F18" s="39"/>
       <c r="G18" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H18" s="40">
         <v>16</v>
@@ -2356,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K18" s="51" t="s">
         <v>19</v>
@@ -2380,7 +2383,7 @@
         <v>122</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="U18" s="44" t="s">
         <v>126</v>
@@ -2391,7 +2394,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>122</v>
@@ -2402,7 +2405,7 @@
       <c r="E19" s="38"/>
       <c r="F19" s="39"/>
       <c r="G19" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H19" s="40">
         <v>17</v>
@@ -2411,7 +2414,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K19" s="51" t="s">
         <v>19</v>
@@ -2435,7 +2438,7 @@
         <v>122</v>
       </c>
       <c r="T19" s="45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U19" s="44" t="s">
         <v>126</v>
@@ -2446,7 +2449,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>122</v>
@@ -2457,7 +2460,7 @@
       <c r="E20" s="38"/>
       <c r="F20" s="39"/>
       <c r="G20" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H20" s="40">
         <v>18</v>
@@ -2466,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K20" s="51" t="s">
         <v>19</v>
@@ -2490,7 +2493,7 @@
         <v>122</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U20" s="44" t="s">
         <v>126</v>
@@ -2501,7 +2504,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" s="35" t="s">
         <v>122</v>
@@ -2512,7 +2515,7 @@
       <c r="E21" s="38"/>
       <c r="F21" s="39"/>
       <c r="G21" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" s="40">
         <v>19</v>
@@ -2521,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K21" s="52" t="s">
         <v>20</v>
@@ -2534,7 +2537,7 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P21" s="39" t="s">
         <v>19</v>
@@ -2543,16 +2546,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S21" s="44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T21" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U21" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2560,18 +2563,18 @@
         <v>18</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="39"/>
       <c r="G22" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H22" s="40">
         <v>20</v>
@@ -2589,7 +2592,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P22" s="39" t="s">
         <v>19</v>
@@ -2605,18 +2608,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39"/>
       <c r="G23" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H23" s="40">
         <v>21</v>
@@ -2625,7 +2628,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K23" s="52" t="s">
         <v>20</v>
@@ -2638,7 +2641,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>19</v>
@@ -2647,16 +2650,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S23" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U23" s="44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2664,18 +2667,18 @@
         <v>18</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
       <c r="G24" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H24" s="40">
         <v>22</v>
@@ -2695,7 +2698,7 @@
         <v>52</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P24" s="39" t="s">
         <v>20</v>
@@ -2704,16 +2707,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T24" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="U24" s="44" t="s">
         <v>191</v>
-      </c>
-      <c r="U24" s="44" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4140,12 +4143,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4160,6 +4157,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
